--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanbaiKanri_1.3.8\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12821AC2-6CBC-3A48-98F8-225AB378A265}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD48AE1-ECC7-4EB9-953E-BF41BB05BE61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25080" windowHeight="21160" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="25080" windowHeight="21156" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,22 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社　全備</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>700-8618 岡山県岡山市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北区新屋敷町1-10-28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Telp. 086-244-0001 Fax. 086-243-9216</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Invoice No.：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,12 +184,28 @@
     <t>株式会社　全備</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PT.ZENBI MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cikarang Techno Park Building-3A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jl.Inti 1 Blok C1 No.7,Lippo Cikarang, Bekasi 17550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL:+62-21-89905877 FAX:+62-21-89905876</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +277,15 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -411,12 +420,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +561,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,17 +609,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,6 +628,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2931203-DC5F-4423-AE9D-D60A8F8701B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38100"/>
+          <a:ext cx="1196340" cy="593789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,31 +985,31 @@
   <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="8" customWidth="1"/>
-    <col min="6" max="7" width="3.1640625" style="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9" max="26" width="3.1640625" style="1"/>
-    <col min="27" max="27" width="3.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="6.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="3.19921875" style="1"/>
+    <col min="8" max="8" width="3.19921875" style="1" customWidth="1"/>
+    <col min="9" max="26" width="3.19921875" style="1"/>
+    <col min="27" max="27" width="3.19921875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="3.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20">
-      <c r="A1" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+    <row r="1" spans="1:27" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -962,14 +1033,14 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -993,14 +1064,14 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1024,14 +1095,14 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+    <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1055,7 +1126,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -1084,14 +1155,14 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1115,12 +1186,12 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="18" thickBot="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+    <row r="7" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1144,13 +1215,13 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1">
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="23"/>
@@ -1177,11 +1248,11 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1">
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="34"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="35"/>
@@ -1208,11 +1279,11 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="19.5" customHeight="1">
+    <row r="10" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="36"/>
@@ -1239,11 +1310,11 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
       <c r="C11" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="24"/>
@@ -1270,11 +1341,11 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="31"/>
       <c r="C12" s="22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="36"/>
@@ -1301,11 +1372,11 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="11"/>
       <c r="C13" s="22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="36"/>
@@ -1332,7 +1403,7 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1434,7 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
     </row>
-    <row r="15" spans="1:27" ht="18" thickBot="1">
+    <row r="15" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="27"/>
       <c r="C15" s="26"/>
@@ -1392,7 +1463,7 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
     </row>
-    <row r="16" spans="1:27" ht="18" thickTop="1">
+    <row r="16" spans="1:27" ht="16.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="22"/>
       <c r="C16" s="11"/>
@@ -1421,21 +1492,21 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -1460,7 +1531,7 @@
       <c r="Z17" s="22"/>
       <c r="AA17" s="22"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="17"/>
@@ -1489,7 +1560,7 @@
       <c r="Z18" s="22"/>
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="40"/>
       <c r="C19" s="17"/>
@@ -1518,7 +1589,7 @@
       <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="15"/>
       <c r="C20" s="18"/>
@@ -1547,11 +1618,11 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="55"/>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="18"/>
@@ -1578,11 +1649,11 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="52"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="55"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="18"/>
@@ -1609,11 +1680,11 @@
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
     </row>
-    <row r="23" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A23" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="52"/>
+    <row r="23" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="55"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1640,7 +1711,7 @@
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
     </row>
-    <row r="24" spans="1:27" ht="18.75" customHeight="1">
+    <row r="24" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1669,9 +1740,9 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="29"/>
     </row>
-    <row r="25" spans="1:27" ht="16.5" customHeight="1">
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="11"/>
@@ -1700,9 +1771,9 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="11"/>
@@ -1731,7 +1802,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:27" ht="18" thickBot="1">
+    <row r="27" spans="1:27" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1760,16 +1831,16 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:27" ht="19.5" customHeight="1" thickTop="1">
+    <row r="28" spans="1:27" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A28" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1793,16 +1864,16 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1826,16 +1897,16 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" spans="1:27" ht="19.5" customHeight="1">
+    <row r="30" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="48">
+      <c r="C30" s="51">
         <v>1234567</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1859,16 +1930,16 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
+      <c r="C31" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="22"/>
       <c r="G31" s="11"/>
       <c r="H31" s="22"/>
@@ -1892,14 +1963,14 @@
       <c r="Z31" s="22"/>
       <c r="AA31" s="22"/>
     </row>
-    <row r="32" spans="1:27" ht="19.5" customHeight="1" thickBot="1">
+    <row r="32" spans="1:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="7"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="C32" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="22"/>
       <c r="G32" s="11"/>
       <c r="H32" s="25"/>
@@ -1923,7 +1994,7 @@
       <c r="Z32" s="25"/>
       <c r="AA32" s="25"/>
     </row>
-    <row r="33" spans="1:27" ht="19.5" customHeight="1" thickTop="1">
+    <row r="33" spans="1:27" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1952,9 +2023,9 @@
       <c r="Z33" s="22"/>
       <c r="AA33" s="22"/>
     </row>
-    <row r="34" spans="1:27" ht="20">
+    <row r="34" spans="1:27" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A34" s="43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1983,7 +2054,7 @@
       <c r="Z34" s="22"/>
       <c r="AA34" s="22"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2012,7 +2083,7 @@
       <c r="Z35" s="22"/>
       <c r="AA35" s="22"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -2040,7 +2111,7 @@
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2142,7 @@
       <c r="Z37" s="22"/>
       <c r="AA37" s="22"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +2173,7 @@
       <c r="Z38" s="22"/>
       <c r="AA38" s="22"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2131,7 +2202,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="22"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2160,7 +2231,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2189,7 +2260,7 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2218,7 +2289,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2247,7 +2318,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -2276,7 +2347,7 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -2305,7 +2376,7 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2334,7 +2405,7 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2380,7 +2451,11 @@
     <mergeCell ref="C29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{73FB1268-7BA9-4E87-AA58-760018EBDABE}"/>
+  </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3ED623-3F25-4371-8859-4C4950B0AD3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B46120-5561-4F9B-93D5-637CB3A6AD69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,8 +224,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -319,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -431,6 +431,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -440,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +608,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -621,38 +680,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
@@ -1045,15 +1083,15 @@
     <col min="29" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:28" ht="19.899999999999999" x14ac:dyDescent="0.7">
+      <c r="A1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1077,15 +1115,15 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1109,15 +1147,15 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1141,15 +1179,15 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:28" ht="17.649999999999999" x14ac:dyDescent="0.7">
+      <c r="A4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1173,7 +1211,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1203,15 +1241,15 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1235,13 +1273,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+    <row r="7" spans="1:28" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1265,7 +1303,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -1301,9 +1339,9 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="26"/>
-      <c r="B9" s="64"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="17" t="s">
         <v>26</v>
       </c>
@@ -1335,9 +1373,9 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4"/>
-      <c r="B10" s="64"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
@@ -1369,9 +1407,9 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A11" s="4"/>
-      <c r="B11" s="64"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
@@ -1403,9 +1441,9 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A12" s="5"/>
-      <c r="B12" s="64"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1475,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A13" s="4"/>
       <c r="B13" s="33"/>
       <c r="C13" s="17" t="s">
@@ -1446,8 +1484,8 @@
       <c r="D13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1471,15 +1509,15 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="10"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1503,13 +1541,13 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="7"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1533,7 +1571,7 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="16.899999999999999" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A16" s="2"/>
       <c r="B16" s="17"/>
       <c r="C16" s="10"/>
@@ -1563,23 +1601,23 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A17" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="73" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="17"/>
@@ -1605,13 +1643,13 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
     </row>
-    <row r="18" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1635,75 +1673,73 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
     </row>
-    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="65"/>
+    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="28"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-    </row>
-    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+    </row>
+    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="11"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
@@ -1727,15 +1763,15 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="59"/>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A22" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="70"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1759,31 +1795,31 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A23" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -1791,13 +1827,15 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="10"/>
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A24" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1814,29 +1852,27 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-    </row>
-    <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+    </row>
+    <row r="25" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -1846,29 +1882,29 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+    </row>
+    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -1878,16 +1914,18 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-    </row>
-    <row r="27" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="C27" s="10"/>
       <c r="D27" s="39"/>
       <c r="E27" s="10"/>
@@ -1898,9 +1936,9 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -1915,17 +1953,13 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+    <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1949,17 +1983,17 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
+    <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="A29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -1983,26 +2017,26 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A30" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="47">
-        <v>1234567</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
+      <c r="C30" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2017,117 +2051,117 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="58">
+        <v>1234567</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="49" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-    </row>
-    <row r="32" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="7"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-    </row>
-    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+    </row>
+    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="7"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="17"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A34" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+    </row>
+    <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="A34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2149,17 +2183,17 @@
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A35" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
+      <c r="C35" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -2183,17 +2217,17 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
     </row>
-    <row r="36" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2217,13 +2251,17 @@
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
     </row>
-    <row r="37" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="7"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
+    <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -2247,18 +2285,17 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
     </row>
-    <row r="38" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+    <row r="38" spans="1:28" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="7"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -2278,7 +2315,11 @@
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="A39" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="39"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2286,43 +2327,38 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.7">
       <c r="D40" s="39"/>
-      <c r="E40" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="53"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2337,13 +2373,15 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A41" s="17"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="64"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2367,7 +2405,7 @@
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2397,22 +2435,22 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -2427,7 +2465,7 @@
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2446,18 +2484,18 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2476,28 +2514,28 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="10"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -2517,7 +2555,7 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.7">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2547,27 +2585,61 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.7">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="E40:F40"/>
+  <mergeCells count="23">
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="E13:F15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B46120-5561-4F9B-93D5-637CB3A6AD69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C77B35-180F-4F02-AB30-67CEA57F54EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="1620" yWindow="1350" windowWidth="23670" windowHeight="12780" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -626,6 +626,12 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -659,6 +665,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,18 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,11 +1064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
@@ -1083,15 +1083,15 @@
     <col min="29" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.899999999999999" x14ac:dyDescent="0.7">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1115,15 +1115,15 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1147,15 +1147,15 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1179,15 +1179,15 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="17.649999999999999" x14ac:dyDescent="0.7">
-      <c r="A4" s="67" t="s">
+    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1211,7 +1211,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -1241,15 +1241,15 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1273,13 +1273,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+    <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1303,7 +1303,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -1339,9 +1339,9 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26"/>
-      <c r="B9" s="53"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="17" t="s">
         <v>26</v>
       </c>
@@ -1373,9 +1373,9 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="53"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
@@ -1407,9 +1407,9 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="53"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
@@ -1441,9 +1441,9 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="53"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="33"/>
       <c r="C13" s="17" t="s">
@@ -1484,8 +1484,8 @@
       <c r="D13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1509,15 +1509,15 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="10"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1541,13 +1541,13 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1571,7 +1571,7 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="16.899999999999999" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:28" ht="17.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="17"/>
       <c r="C16" s="10"/>
@@ -1601,23 +1601,23 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A17" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="53" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="17"/>
@@ -1643,13 +1643,13 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1673,7 +1673,7 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
     </row>
-    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="47"/>
@@ -1703,7 +1703,7 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
     </row>
-    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="35"/>
       <c r="C20" s="47"/>
@@ -1733,7 +1733,7 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
     </row>
-    <row r="21" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="34"/>
       <c r="C21" s="48"/>
@@ -1763,11 +1763,11 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A22" s="70" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="50"/>
@@ -1795,11 +1795,11 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A23" s="70" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A23" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="50"/>
@@ -1827,11 +1827,11 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="70" t="s">
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="13"/>
       <c r="D24" s="38"/>
       <c r="E24" s="52"/>
@@ -1859,7 +1859,7 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
     </row>
-    <row r="25" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1889,7 +1889,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
     </row>
-    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
-    <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1983,17 +1983,17 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
-    <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2017,17 +2017,17 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -2051,17 +2051,17 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="58">
+      <c r="C31" s="60">
         <v>1234567</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -2085,17 +2085,17 @@
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="17"/>
       <c r="H32" s="10"/>
       <c r="I32" s="17"/>
@@ -2119,13 +2119,13 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
     </row>
-    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="17"/>
       <c r="H33" s="10"/>
       <c r="I33" s="18"/>
@@ -2149,17 +2149,17 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="18"/>
     </row>
-    <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="17"/>
       <c r="H34" s="10"/>
       <c r="I34" s="17"/>
@@ -2183,17 +2183,17 @@
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="46"/>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -2217,17 +2217,17 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="46"/>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
@@ -2251,17 +2251,17 @@
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
     </row>
-    <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="17"/>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
@@ -2285,13 +2285,13 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
     </row>
-    <row r="38" spans="1:28" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2315,7 +2315,7 @@
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
     </row>
-    <row r="39" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="39"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2373,15 +2373,13 @@
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.7">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A41" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="68"/>
       <c r="C41" s="10"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="64"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2405,7 +2403,7 @@
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2435,7 +2433,7 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2465,7 +2463,7 @@
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2495,7 +2493,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2525,7 +2523,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2555,7 +2553,7 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2585,7 +2583,7 @@
       <c r="AA47" s="10"/>
       <c r="AB47" s="10"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2617,7 +2615,7 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A3CAE2-9ADC-4711-AAC0-58BC21D230A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171DE37-15FE-4681-BB04-F666895E8367}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
@@ -24,30 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>KAOATO</author>
-  </authors>
-  <commentList>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{716E0878-7402-4EB0-81AD-E5717F498E89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>29行目以下は赤字固定でお願い致します。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
@@ -206,7 +182,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -633,6 +602,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,6 +686,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -656,87 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,11 +1076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:F35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -1130,14 +1099,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1162,14 +1131,14 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1194,14 +1163,14 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1226,14 +1195,14 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1288,14 +1257,14 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1320,12 +1289,12 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1353,7 +1322,7 @@
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="23" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1356,7 @@
     </row>
     <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1390,7 @@
     </row>
     <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1424,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1458,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1499,8 @@
       <c r="D13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1562,8 +1531,8 @@
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1592,8 +1561,8 @@
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1648,16 +1617,16 @@
       <c r="AB16" s="11"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="61" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="47" t="s">
@@ -1690,10 +1659,10 @@
       <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="16"/>
@@ -1810,10 +1779,10 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="44"/>
@@ -1842,10 +1811,10 @@
       <c r="AB22" s="15"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="52"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="44"/>
@@ -1874,10 +1843,10 @@
       <c r="AB23" s="15"/>
     </row>
     <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="12"/>
       <c r="D24" s="34"/>
       <c r="E24" s="46"/>
@@ -2000,12 +1969,12 @@
       <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2030,196 +1999,204 @@
       <c r="AB28" s="9"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="75" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
     </row>
     <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
     </row>
     <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="73" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="74"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
     </row>
     <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="75" t="s">
+      <c r="B37" s="55"/>
+      <c r="C37" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
     </row>
     <row r="38" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="80"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
     </row>
     <row r="39" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="81"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="81"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="81"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="F45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F7"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D17:D18"/>
@@ -2232,18 +2209,10 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F7"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E13:F15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -2252,6 +2221,5 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\熊谷亜祐美共有\インドネシア販売管理\Template\ZENBI\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171DE37-15FE-4681-BB04-F666895E8367}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{33EFDC7F-4C3E-401E-8B4D-FBF35AB7E158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E405F306-F901-4A7A-A38E-24B7262295DC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Attn. :</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>President Director</t>
+  </si>
+  <si>
+    <t>PT.     MACHINERY AND ELECTRONICS INDONESIA</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -677,6 +681,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,21 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,34 +1083,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="8" customWidth="1"/>
-    <col min="7" max="8" width="3.25" style="1"/>
-    <col min="9" max="9" width="3.25" style="1" customWidth="1"/>
-    <col min="10" max="27" width="3.25" style="1"/>
-    <col min="28" max="28" width="3.25" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="3.25" style="1"/>
+    <col min="6" max="6" width="19.19921875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="3.19921875" style="1"/>
+    <col min="9" max="9" width="3.19921875" style="1" customWidth="1"/>
+    <col min="10" max="27" width="3.19921875" style="1"/>
+    <col min="28" max="28" width="3.19921875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="3.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1130,15 +1134,15 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1162,15 +1166,15 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1194,15 +1198,15 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1226,7 +1230,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1256,15 +1260,15 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="77" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1288,13 +1292,13 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+    <row r="7" spans="1:28" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1318,7 +1322,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1358,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="24"/>
       <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
@@ -1388,7 +1392,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="60"/>
       <c r="C10" s="16" t="s">
@@ -1422,7 +1426,7 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
@@ -1456,7 +1460,7 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="60"/>
       <c r="C12" s="16" t="s">
@@ -1490,7 +1494,7 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
@@ -1499,8 +1503,8 @@
       <c r="D13" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1524,15 +1528,15 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1556,13 +1560,13 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1586,7 +1590,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" ht="16.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
       <c r="C16" s="9"/>
@@ -1616,7 +1620,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="61" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1662,7 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -1688,7 +1692,7 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
     </row>
-    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="30"/>
       <c r="C19" s="41"/>
@@ -1718,7 +1722,7 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
     </row>
-    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="31"/>
       <c r="C20" s="41"/>
@@ -1748,7 +1752,7 @@
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
     </row>
-    <row r="21" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="30"/>
       <c r="C21" s="42"/>
@@ -1778,11 +1782,11 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A22" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="79"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="44"/>
@@ -1810,11 +1814,11 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23" s="79" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A23" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="44"/>
@@ -1842,11 +1846,11 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="79" t="s">
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="12"/>
       <c r="D24" s="34"/>
       <c r="E24" s="46"/>
@@ -1874,7 +1878,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1904,7 +1908,7 @@
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1940,7 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -1998,7 +2002,7 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A29" s="52" t="s">
         <v>12</v>
       </c>
@@ -2010,19 +2014,19 @@
       <c r="E29" s="63"/>
       <c r="F29" s="64"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D30" s="65"/>
       <c r="E30" s="65"/>
       <c r="F30" s="66"/>
     </row>
-    <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="54" t="s">
         <v>14</v>
       </c>
@@ -2034,7 +2038,7 @@
       <c r="E31" s="67"/>
       <c r="F31" s="68"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="54" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="E32" s="69"/>
       <c r="F32" s="70"/>
     </row>
-    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="56"/>
       <c r="B33" s="57"/>
       <c r="C33" s="71"/>
@@ -2074,7 +2078,7 @@
       <c r="AA33" s="50"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A34" s="52" t="s">
         <v>12</v>
       </c>
@@ -2086,19 +2090,19 @@
       <c r="E34" s="63"/>
       <c r="F34" s="64"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="55"/>
       <c r="C35" s="65" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
       <c r="F35" s="66"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="54" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2114,7 @@
       <c r="E36" s="67"/>
       <c r="F36" s="68"/>
     </row>
-    <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="54" t="s">
         <v>15</v>
       </c>
@@ -2122,7 +2126,7 @@
       <c r="E37" s="69"/>
       <c r="F37" s="70"/>
     </row>
-    <row r="38" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:28" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="71"/>
@@ -2130,7 +2134,7 @@
       <c r="E38" s="71"/>
       <c r="F38" s="72"/>
     </row>
-    <row r="39" spans="1:28" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" ht="20.399999999999999" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A39" s="58"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -2138,7 +2142,7 @@
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
     </row>
-    <row r="40" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A40" s="58" t="s">
         <v>33</v>
       </c>
@@ -2148,7 +2152,7 @@
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
     </row>
-    <row r="41" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A41" s="58"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -2156,7 +2160,7 @@
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
     </row>
-    <row r="42" spans="1:28" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A42" s="58"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -2164,7 +2168,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="73" t="s">
         <v>36</v>
       </c>
@@ -2174,7 +2178,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="59" t="s">
         <v>37</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="F45" s="1"/>
     </row>
   </sheetData>
@@ -2217,9 +2221,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
-  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Invoice.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPIN\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC809598-B5F1-4EE3-AFAE-50FE53858C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F346B9CA-7835-4311-96DE-DAC843B8B984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,10 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MAKER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>QUANTITY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -172,12 +167,15 @@
   </si>
   <si>
     <t>1011836901 (IDR)   1011836902 (USD)   1011836903 (JPY)</t>
+  </si>
+  <si>
+    <t>ITEM DESCRIPTION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ "/>
@@ -455,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,12 +514,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -531,9 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -605,9 +594,6 @@
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -740,7 +726,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2931203-DC5F-4423-AE9D-D60A8F8701B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2931203-DC5F-4423-AE9D-D60A8F8701B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,11 +1057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F18E92-DC95-4AD5-89E2-98B5D8D9CC8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -1094,14 +1080,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75">
-      <c r="A1" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="A1" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1126,14 +1112,14 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="A2" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1158,14 +1144,14 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="A3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1190,14 +1176,14 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="15">
-      <c r="A4" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="A4" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1222,12 +1208,12 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1252,14 +1238,14 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A6" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="A6" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1284,12 +1270,12 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1314,194 +1300,194 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
+        <v>19</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
     </row>
     <row r="9" spans="1:28" ht="14.1" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="58"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
     </row>
     <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="58"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="23"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="21"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
     </row>
     <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="58"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
     </row>
     <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
     </row>
     <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
     </row>
     <row r="15" spans="1:28" ht="14.1" customHeight="1" thickBot="1">
       <c r="A15" s="6"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
     </row>
     <row r="16" spans="1:28" ht="13.5" thickTop="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1526,23 +1512,23 @@
       <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="D17" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1568,12 +1554,12 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1600,155 +1586,155 @@
     <row r="19" spans="1:28" ht="45.75" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="47"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:28" ht="45.75" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
     </row>
     <row r="21" spans="1:28" ht="45.75" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
     </row>
     <row r="22" spans="1:28" ht="14.1" customHeight="1">
-      <c r="A22" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="72"/>
+      <c r="A22" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="68"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
     </row>
     <row r="23" spans="1:28" ht="14.1" customHeight="1">
-      <c r="A23" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="72"/>
+      <c r="A23" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="68"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
     </row>
     <row r="24" spans="1:28" ht="14.1" customHeight="1">
-      <c r="A24" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
+      <c r="A24" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
     </row>
     <row r="25" spans="1:28" ht="6.75" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1774,267 +1760,265 @@
     </row>
     <row r="26" spans="1:28" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="55"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="51"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="54"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="50"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="55"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
     </row>
     <row r="29" spans="1:28" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="61" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+    </row>
+    <row r="34" spans="1:28" ht="17.100000000000001" customHeight="1" thickTop="1">
+      <c r="A34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+    </row>
+    <row r="36" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="1:28" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+    </row>
+    <row r="38" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="1:28" ht="16.5" thickTop="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75">
+      <c r="A40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-    </row>
-    <row r="30" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-    </row>
-    <row r="31" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-    </row>
-    <row r="32" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="67" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75">
+      <c r="A41" s="28"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75">
+      <c r="A42" s="28"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75">
+      <c r="A43" s="28"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75">
+      <c r="A44" s="28"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="1:28" ht="30" customHeight="1">
+      <c r="A45" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-    </row>
-    <row r="33" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-    </row>
-    <row r="34" spans="1:28" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
-    </row>
-    <row r="36" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-    </row>
-    <row r="37" spans="1:28" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-    </row>
-    <row r="38" spans="1:28" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-    </row>
-    <row r="39" spans="1:28" ht="16.5" thickTop="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75">
-      <c r="A40" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75">
-      <c r="A41" s="31"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75">
-      <c r="A42" s="31"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75">
-      <c r="A43" s="31"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75">
-      <c r="A44" s="31"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1">
-      <c r="A45" s="71" t="s">
+      <c r="B45" s="67"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E13:F15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="D17:D18"/>
@@ -2049,6 +2033,8 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E13:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.11811023622047245"/>
